--- a/biology/Zoologie/Chalcides_lanzai/Chalcides_lanzai.xlsx
+++ b/biology/Zoologie/Chalcides_lanzai/Chalcides_lanzai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides lanzai est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides lanzai est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Maroc. Elle se rencontre dans le Moyen Atlas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Maroc. Elle se rencontre dans le Moyen Atlas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Benedetto Lanza[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Benedetto Lanza,.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pasteur, 1967 : Notes sur les sauriens du genre Chalcides (Scincidés). II. Premièr note sur le complexe de Chalcides ocellatus, avec description de Chalcides ocellatus lanzai. Bulletin de la Societe des Sciences Naturelles du Maroc, vol. 47, p. 395-398.</t>
         </is>
